--- a/TSLA_Teknik_Gosterge_Analizi.xlsx
+++ b/TSLA_Teknik_Gosterge_Analizi.xlsx
@@ -8341,31 +8341,31 @@
         <v>45852</v>
       </c>
       <c r="B253" t="n">
-        <v>316.510009765625</v>
+        <v>316.0499877929688</v>
       </c>
       <c r="C253" t="n">
         <v>322.5986022949219</v>
       </c>
       <c r="D253" t="n">
-        <v>314.9849853515625</v>
+        <v>312.6700134277344</v>
       </c>
       <c r="E253" t="n">
         <v>317.7300109863281</v>
       </c>
       <c r="F253" t="n">
-        <v>19973058</v>
+        <v>67146846</v>
       </c>
       <c r="G253" t="n">
-        <v>0.009569072458779804</v>
+        <v>0.008101744595786942</v>
       </c>
       <c r="H253" t="n">
-        <v>317.9</v>
+        <v>317.8769989013672</v>
       </c>
       <c r="I253" t="n">
-        <v>320.764400024414</v>
+        <v>320.755199584961</v>
       </c>
       <c r="J253" t="n">
-        <v>35.5155396459246</v>
+        <v>35.24730311616607</v>
       </c>
     </row>
   </sheetData>

--- a/TSLA_Teknik_Gosterge_Analizi.xlsx
+++ b/TSLA_Teknik_Gosterge_Analizi.xlsx
@@ -8341,7 +8341,7 @@
         <v>45852</v>
       </c>
       <c r="B253" t="n">
-        <v>316.0499877929688</v>
+        <v>316.4656066894531</v>
       </c>
       <c r="C253" t="n">
         <v>322.5986022949219</v>
@@ -8353,19 +8353,19 @@
         <v>317.7300109863281</v>
       </c>
       <c r="F253" t="n">
-        <v>67146846</v>
+        <v>67679987</v>
       </c>
       <c r="G253" t="n">
-        <v>0.008101744595786942</v>
+        <v>0.009427440374352614</v>
       </c>
       <c r="H253" t="n">
-        <v>317.8769989013672</v>
+        <v>317.8977798461914</v>
       </c>
       <c r="I253" t="n">
-        <v>320.755199584961</v>
+        <v>320.7635119628906</v>
       </c>
       <c r="J253" t="n">
-        <v>35.24730311616607</v>
+        <v>35.48974537248954</v>
       </c>
     </row>
   </sheetData>
